--- a/result/gr100_08_simulated/details.xlsx
+++ b/result/gr100_08_simulated/details.xlsx
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.103992223739624</v>
+        <v>0.7444260120391846</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>5314.771909509691</v>
+        <v>5818.209725119707</v>
       </c>
       <c r="F2" t="n">
         <v>0.2612369393916287</v>
@@ -588,55 +588,55 @@
         <v>0.1826766275731355</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1622309519875352</v>
+        <v>0.1612467734209603</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1504985849191657</v>
+        <v>0.1432357924831252</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1391648519175196</v>
+        <v>0.1409509607301358</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1324481192841773</v>
+        <v>0.1373888944078355</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1255030190389815</v>
+        <v>0.1358179742418151</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1203785588910994</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1159559027242046</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1143487558603509</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1143487558603509</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1135038917881593</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1131347384742729</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1131347384742729</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="U2" t="n">
-        <v>0.112964184617709</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1123039964456712</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1116150847610625</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1116150847610625</v>
+        <v>0.1294153942518461</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.111601791608376</v>
+        <v>0.1294153942518461</v>
       </c>
     </row>
     <row r="3">
@@ -649,13 +649,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.208825826644897</v>
+        <v>1.078359365463257</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>5699.206999383191</v>
+        <v>5549.580757867569</v>
       </c>
       <c r="F3" t="n">
         <v>0.2612369393916287</v>
@@ -667,55 +667,55 @@
         <v>0.1826766275731355</v>
       </c>
       <c r="I3" t="n">
-        <v>0.165052264065365</v>
+        <v>0.1649773832155262</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1554005028587365</v>
+        <v>0.1509042501999619</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1397018143231031</v>
+        <v>0.1453683314825268</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1323186637048729</v>
+        <v>0.1319989883509791</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1274343577087058</v>
+        <v>0.1319989883509791</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1274343577087058</v>
+        <v>0.1318148275497462</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1274343577087058</v>
+        <v>0.123428847305307</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1274343577087058</v>
+        <v>0.1222815401950872</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1273503112369249</v>
+        <v>0.1198868791837298</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1273503112369249</v>
+        <v>0.1198868791837298</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1273503112369249</v>
+        <v>0.1194798072655575</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1270956530094189</v>
+        <v>0.1185372427381384</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1270956530094189</v>
+        <v>0.1176361161952569</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1270956530094189</v>
+        <v>0.1172032778254521</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1270956530094189</v>
+        <v>0.116178962141668</v>
       </c>
       <c r="X3" t="n">
-        <v>0.1270956530094189</v>
+        <v>0.116178962141668</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1270956530094189</v>
+        <v>0.116178962141668</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.787691593170166</v>
+        <v>0.9218385219573975</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>5334.954112269088</v>
+        <v>5522.031051209871</v>
       </c>
       <c r="F4" t="n">
         <v>0.2612369393916287</v>
@@ -746,55 +746,55 @@
         <v>0.1826766275731355</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1622929406354756</v>
+        <v>0.165726156694249</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1512946689904975</v>
+        <v>0.1556224032727453</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1403685902245885</v>
+        <v>0.1407074144722224</v>
       </c>
       <c r="L4" t="n">
-        <v>0.131087056494238</v>
+        <v>0.1332354792257785</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1266552763226494</v>
+        <v>0.1304841187981101</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1200834660895904</v>
+        <v>0.1258712414116389</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1181844585203026</v>
+        <v>0.1258712414116389</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1157116869099101</v>
+        <v>0.1240950807058515</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1134737968970987</v>
+        <v>0.1240156270650122</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1134737968970987</v>
+        <v>0.123898973301136</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1134737968970987</v>
+        <v>0.123898973301136</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1132105557597209</v>
+        <v>0.1236891168188872</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1132105557597209</v>
+        <v>0.1236891168188872</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1126577253962572</v>
+        <v>0.1236891168188872</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1126577253962572</v>
+        <v>0.1236891168188872</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1121090531603692</v>
+        <v>0.1236419308228045</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1119952068668438</v>
+        <v>0.1236419308228045</v>
       </c>
     </row>
     <row r="5">
@@ -807,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7504978179931641</v>
+        <v>0.8437650203704834</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>5473.144399676028</v>
+        <v>5528.375565826568</v>
       </c>
       <c r="F5" t="n">
         <v>0.2612369393916287</v>
@@ -831,49 +831,49 @@
         <v>0.1556224032727453</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1379929237846342</v>
+        <v>0.1355208441974171</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1314943158513833</v>
+        <v>0.1328800243010802</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1298709096202504</v>
+        <v>0.1289915434127319</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1274570157092719</v>
+        <v>0.1220340798249276</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1245994043416208</v>
+        <v>0.1220340798249276</v>
       </c>
       <c r="P5" t="n">
-        <v>0.116282954394626</v>
+        <v>0.1197445999028133</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.116282954394626</v>
+        <v>0.1188657219056261</v>
       </c>
       <c r="R5" t="n">
-        <v>0.116282954394626</v>
+        <v>0.1188657219056261</v>
       </c>
       <c r="S5" t="n">
-        <v>0.116282954394626</v>
+        <v>0.1184552727020081</v>
       </c>
       <c r="T5" t="n">
-        <v>0.116282954394626</v>
+        <v>0.1173854298325454</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1157669813348388</v>
+        <v>0.11674686560849</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1157669813348388</v>
+        <v>0.1167089826358899</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1151281940859764</v>
+        <v>0.115765605571668</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1149583304603646</v>
+        <v>0.115765605571668</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1146889746525541</v>
+        <v>0.115765605571668</v>
       </c>
     </row>
     <row r="6">
@@ -886,13 +886,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8639872074127197</v>
+        <v>0.8593864440917969</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>5528.393008547057</v>
+        <v>5777.664946093589</v>
       </c>
       <c r="F6" t="n">
         <v>0.2612369393916287</v>
@@ -904,55 +904,55 @@
         <v>0.1826766275731355</v>
       </c>
       <c r="I6" t="n">
-        <v>0.165726156694249</v>
+        <v>0.1556455539133602</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1515110318772468</v>
+        <v>0.1513237459422206</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1363404649150468</v>
+        <v>0.1436460872980684</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1301165116033834</v>
+        <v>0.1351273369360836</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1243342783608356</v>
+        <v>0.1351273369360836</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1208331705344269</v>
+        <v>0.1338060286462254</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1187346692305834</v>
+        <v>0.1247641134643513</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1187346692305834</v>
+        <v>0.1245414845932979</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1187346692305834</v>
+        <v>0.123262470692648</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1174434616299987</v>
+        <v>0.1229008870636346</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1174434616299987</v>
+        <v>0.1229008870636346</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1166061901060288</v>
+        <v>0.1219306882078127</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1166061901060288</v>
+        <v>0.1212731419103084</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1166061901060288</v>
+        <v>0.1210699655274099</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1165920469652734</v>
+        <v>0.1209526527960076</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1162292400147721</v>
+        <v>0.1208039751611709</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1157659455857126</v>
+        <v>0.1206250476821362</v>
       </c>
     </row>
     <row r="7">
@@ -965,13 +965,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8569862842559814</v>
+        <v>0.843724250793457</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>5533.919137081361</v>
+        <v>5635.290170927763</v>
       </c>
       <c r="F7" t="n">
         <v>0.2612369393916287</v>
@@ -983,55 +983,55 @@
         <v>0.1826766275731355</v>
       </c>
       <c r="I7" t="n">
-        <v>0.165726156694249</v>
+        <v>0.16053514371711</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1513648761132996</v>
+        <v>0.1418392959622381</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1406343245996375</v>
+        <v>0.137046920160777</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1330339730929704</v>
+        <v>0.1351636666743501</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1309693957053024</v>
+        <v>0.1324155919062014</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1283003492166505</v>
+        <v>0.1313625134089997</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1253187843117455</v>
+        <v>0.1278701804191927</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1253187843117455</v>
+        <v>0.1278701804191927</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1253187843117455</v>
+        <v>0.1268864056362424</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1253187843117455</v>
+        <v>0.1265627450762096</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1253187843117455</v>
+        <v>0.1259587040413774</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1240687756614464</v>
+        <v>0.1259587040413774</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1240687756614464</v>
+        <v>0.1259587040413774</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1240687756614464</v>
+        <v>0.1259587040413774</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1240398442261016</v>
+        <v>0.1258497109342643</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1240398442261016</v>
+        <v>0.1258497109342643</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1238736673895002</v>
+        <v>0.1258497109342643</v>
       </c>
     </row>
     <row r="8">
@@ -1044,13 +1044,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7739989757537842</v>
+        <v>0.8594014644622803</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>5815.513777765351</v>
+        <v>5561.121790263073</v>
       </c>
       <c r="F8" t="n">
         <v>0.2612369393916287</v>
@@ -1062,55 +1062,55 @@
         <v>0.1826766275731355</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1647308165732482</v>
+        <v>0.165726156694249</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1454049217704</v>
+        <v>0.1426082550982998</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1414836763940922</v>
+        <v>0.1415162970344212</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1353040093771554</v>
+        <v>0.1397365322063736</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1342469390187172</v>
+        <v>0.1326066613395584</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1284377590335594</v>
+        <v>0.124597596163596</v>
       </c>
       <c r="O8" t="n">
-        <v>0.126868331020845</v>
+        <v>0.124597596163596</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1234617998067885</v>
+        <v>0.1236637241515554</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1217610410626459</v>
+        <v>0.1193583876122125</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1217100058155023</v>
+        <v>0.1193583876122125</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1215579203684833</v>
+        <v>0.1192216178901757</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1215142924281882</v>
+        <v>0.117335653469729</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214066786645498</v>
+        <v>0.117335653469729</v>
       </c>
       <c r="V8" t="n">
-        <v>0.1214066786645498</v>
+        <v>0.116749629832031</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1213663135215937</v>
+        <v>0.116749629832031</v>
       </c>
       <c r="X8" t="n">
-        <v>0.1213628416718392</v>
+        <v>0.116749629832031</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1213628416718392</v>
+        <v>0.1164039335333932</v>
       </c>
     </row>
     <row r="9">
@@ -1123,13 +1123,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8489880561828613</v>
+        <v>0.7655999660491943</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>5529.069168897382</v>
+        <v>5566.681291594658</v>
       </c>
       <c r="F9" t="n">
         <v>0.2612369393916287</v>
@@ -1144,52 +1144,52 @@
         <v>0.165726156694249</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1556224032727453</v>
+        <v>0.1492580251219544</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1450954124771082</v>
+        <v>0.1371595902975441</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1329689554578864</v>
+        <v>0.1300566062269913</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1313007529856164</v>
+        <v>0.1252352845453791</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1313007529856164</v>
+        <v>0.124485728366017</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1277910962719246</v>
+        <v>0.124485728366017</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1259902192449579</v>
+        <v>0.1234453567825319</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1259902192449579</v>
+        <v>0.121982845543144</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1237791260993642</v>
+        <v>0.1216208724505044</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1237791260993642</v>
+        <v>0.1202929609455025</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1237791260993642</v>
+        <v>0.119218317748401</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1237791260993642</v>
+        <v>0.1188849911772946</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1237791260993642</v>
+        <v>0.1187661615536152</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1237791260993642</v>
+        <v>0.1170113783455089</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1237791260993642</v>
+        <v>0.1168233446628406</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1237791260993642</v>
+        <v>0.1165123058790381</v>
       </c>
     </row>
     <row r="10">
@@ -1202,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9370124340057373</v>
+        <v>0.7969136238098145</v>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>5523.973228403152</v>
+        <v>5523.824040974669</v>
       </c>
       <c r="F10" t="n">
         <v>0.2612369393916287</v>
@@ -1220,55 +1220,55 @@
         <v>0.1826766275731355</v>
       </c>
       <c r="I10" t="n">
-        <v>0.164814421874031</v>
+        <v>0.165726156694249</v>
       </c>
       <c r="J10" t="n">
-        <v>0.145002372216141</v>
+        <v>0.1538881665131734</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1396432627008195</v>
+        <v>0.1472399347538996</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1348886886678909</v>
+        <v>0.1387525116533764</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1298909444882905</v>
+        <v>0.136538133377005</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1259402901077816</v>
+        <v>0.1332828548476813</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1251546211197936</v>
+        <v>0.1284266502415519</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1242688854561011</v>
+        <v>0.1252981294095448</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1242688854561011</v>
+        <v>0.1250570663618751</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1242688854561011</v>
+        <v>0.1250570663618751</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1242688854561011</v>
+        <v>0.124873683282672</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1242688854561011</v>
+        <v>0.124873683282672</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1238292873603728</v>
+        <v>0.1239702349983815</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1238292873603728</v>
+        <v>0.1239702349983815</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1238292873603728</v>
+        <v>0.1239702349983815</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1238292873603728</v>
+        <v>0.1239702349983815</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1236797900273519</v>
+        <v>0.1236768818903444</v>
       </c>
     </row>
     <row r="11">
@@ -1281,13 +1281,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210105895996094</v>
+        <v>0.7499873638153076</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>5766.385677966112</v>
+        <v>5384.813232915303</v>
       </c>
       <c r="F11" t="n">
         <v>0.2612369393916287</v>
@@ -1302,52 +1302,52 @@
         <v>0.165726156694249</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1489888159366359</v>
+        <v>0.1556224032727453</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1434907891598347</v>
+        <v>0.1419771142015106</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1363855442551525</v>
+        <v>0.1363032853960092</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1337665393687549</v>
+        <v>0.1289843925104508</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1323110883453519</v>
+        <v>0.1226246923756752</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1304409430848581</v>
+        <v>0.1224755686838483</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1284325554597833</v>
+        <v>0.1208451679664848</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1245567939155279</v>
+        <v>0.1187675514144697</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1245567939155279</v>
+        <v>0.1174163406949813</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1236703473235288</v>
+        <v>0.1161612618409982</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1227350536174015</v>
+        <v>0.1155934138523988</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1219414202067881</v>
+        <v>0.1150157652565395</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1219414202067881</v>
+        <v>0.1129774923165696</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1219414202067881</v>
+        <v>0.1129774923165696</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1209465857074459</v>
+        <v>0.1129671195500059</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1204051789077215</v>
+        <v>0.1129671195500059</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr100_08_simulated/details.xlsx
+++ b/result/gr100_08_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7444260120391846</v>
+        <v>1.81399941444397</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5818.209725119707</v>
+        <v>6402.475950800274</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2612369393916287</v>
+        <v>0.2435465729302398</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1967978227423629</v>
+        <v>0.2052815502316371</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1826766275731355</v>
+        <v>0.178694355199945</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1612467734209603</v>
+        <v>0.1683892237606172</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1432357924831252</v>
+        <v>0.1578628390298868</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1409509607301358</v>
+        <v>0.1509940945340159</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1373888944078355</v>
+        <v>0.1425904236156144</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1358179742418151</v>
+        <v>0.1354602983680519</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1332350293336609</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328878184165517</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328878184165517</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328878184165517</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328878184165517</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328878184165517</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328045994308045</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328045994308045</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328045994308045</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328045994308045</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328045994308045</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1294153942518461</v>
+        <v>0.1328045994308045</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.078359365463257</v>
+        <v>1.485998868942261</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>5549.580757867569</v>
+        <v>6428.228550823073</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2612369393916287</v>
+        <v>0.2435465729302398</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1967978227423629</v>
+        <v>0.2052815502316371</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1826766275731355</v>
+        <v>0.178694355199945</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1649773832155262</v>
+        <v>0.1683892237606172</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1509042501999619</v>
+        <v>0.1634031916298378</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1453683314825268</v>
+        <v>0.1565002134468439</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1319989883509791</v>
+        <v>0.1521304853218897</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1319989883509791</v>
+        <v>0.1469182874437504</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1318148275497462</v>
+        <v>0.1469182874437504</v>
       </c>
       <c r="O3" t="n">
-        <v>0.123428847305307</v>
+        <v>0.1459895682571866</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1222815401950872</v>
+        <v>0.1427917377320834</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1198868791837298</v>
+        <v>0.1416120370577794</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1198868791837298</v>
+        <v>0.1416120370577794</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1194798072655575</v>
+        <v>0.1415380397343942</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1185372427381384</v>
+        <v>0.1415380397343942</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1176361161952569</v>
+        <v>0.1415380397343942</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1172032778254521</v>
+        <v>0.1414888013901989</v>
       </c>
       <c r="W3" t="n">
-        <v>0.116178962141668</v>
+        <v>0.1414888013901989</v>
       </c>
       <c r="X3" t="n">
-        <v>0.116178962141668</v>
+        <v>0.1414888013901989</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.116178962141668</v>
+        <v>0.141306599431249</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9218385219573975</v>
+        <v>1.717000961303711</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>5522.031051209871</v>
+        <v>6710.309206785329</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2612369393916287</v>
+        <v>0.2435465729302398</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1967978227423629</v>
+        <v>0.2052815502316371</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1826766275731355</v>
+        <v>0.178694355199945</v>
       </c>
       <c r="I4" t="n">
-        <v>0.165726156694249</v>
+        <v>0.1683892237606172</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1556224032727453</v>
+        <v>0.1549879400411887</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1407074144722224</v>
+        <v>0.1487521583260372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1332354792257785</v>
+        <v>0.147463193855715</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1304841187981101</v>
+        <v>0.1451535800088008</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1258712414116389</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1258712414116389</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1240950807058515</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1240156270650122</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="R4" t="n">
-        <v>0.123898973301136</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="S4" t="n">
-        <v>0.123898973301136</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1236891168188872</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1236891168188872</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1236891168188872</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1236891168188872</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1236419308228045</v>
+        <v>0.1388052476956204</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1236419308228045</v>
+        <v>0.1388052476956204</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8437650203704834</v>
+        <v>1.679980993270874</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>5528.375565826568</v>
+        <v>6401.079491542452</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2612369393916287</v>
+        <v>0.2435465729302398</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1967978227423629</v>
+        <v>0.2052815502316371</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1826766275731355</v>
+        <v>0.178694355199945</v>
       </c>
       <c r="I5" t="n">
-        <v>0.165726156694249</v>
+        <v>0.1683892237606172</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1556224032727453</v>
+        <v>0.149634652393159</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1355208441974171</v>
+        <v>0.1464057319029364</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1328800243010802</v>
+        <v>0.1447392307779213</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1289915434127319</v>
+        <v>0.1413962662297761</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1220340798249276</v>
+        <v>0.1413962662297761</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1220340798249276</v>
+        <v>0.1409155379320654</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1197445999028133</v>
+        <v>0.1408344258264169</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1188657219056261</v>
+        <v>0.1408344258264169</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1188657219056261</v>
+        <v>0.1408344258264169</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1184552727020081</v>
+        <v>0.1408344258264169</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1173854298325454</v>
+        <v>0.1407773780027768</v>
       </c>
       <c r="U5" t="n">
-        <v>0.11674686560849</v>
+        <v>0.1407773780027768</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1167089826358899</v>
+        <v>0.1407773780027768</v>
       </c>
       <c r="W5" t="n">
-        <v>0.115765605571668</v>
+        <v>0.1407773780027768</v>
       </c>
       <c r="X5" t="n">
-        <v>0.115765605571668</v>
+        <v>0.1407773780027768</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.115765605571668</v>
+        <v>0.1407773780027768</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8593864440917969</v>
+        <v>1.536943674087524</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>5777.664946093589</v>
+        <v>6411.447511061301</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2612369393916287</v>
+        <v>0.2435465729302398</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1967978227423629</v>
+        <v>0.2052815502316371</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1826766275731355</v>
+        <v>0.178694355199945</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1556455539133602</v>
+        <v>0.1683892237606172</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1513237459422206</v>
+        <v>0.1528855784489951</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1436460872980684</v>
+        <v>0.1528855784489951</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1351273369360836</v>
+        <v>0.1481130607365902</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1351273369360836</v>
+        <v>0.140216055188859</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1338060286462254</v>
+        <v>0.1375117771559863</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1247641134643513</v>
+        <v>0.1352056187549749</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1245414845932979</v>
+        <v>0.1343482026507863</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.123262470692648</v>
+        <v>0.1339639066960592</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1229008870636346</v>
+        <v>0.1339639066960592</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1229008870636346</v>
+        <v>0.1339413678551649</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1219306882078127</v>
+        <v>0.1329794836464191</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1212731419103084</v>
+        <v>0.1329794836464191</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1210699655274099</v>
+        <v>0.1329794836464191</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1209526527960076</v>
+        <v>0.1329794836464191</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1208039751611709</v>
+        <v>0.1329794836464191</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1206250476821362</v>
+        <v>0.1329794836464191</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.843724250793457</v>
+        <v>1.613997220993042</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>5635.290170927763</v>
+        <v>6398.337455565823</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2612369393916287</v>
+        <v>0.2435465729302398</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1967978227423629</v>
+        <v>0.2052815502316371</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1826766275731355</v>
+        <v>0.178694355199945</v>
       </c>
       <c r="I7" t="n">
-        <v>0.16053514371711</v>
+        <v>0.1683892237606172</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1418392959622381</v>
+        <v>0.1529483792876766</v>
       </c>
       <c r="K7" t="n">
-        <v>0.137046920160777</v>
+        <v>0.1465864945995281</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1351636666743501</v>
+        <v>0.1400525914119534</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1324155919062014</v>
+        <v>0.1341628036367663</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1313625134089997</v>
+        <v>0.1331957942852961</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1278701804191927</v>
+        <v>0.1328847939642564</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1278701804191927</v>
+        <v>0.1327323239271318</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1268864056362424</v>
+        <v>0.1327323239271318</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1265627450762096</v>
+        <v>0.1327323239271318</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1259587040413774</v>
+        <v>0.1327287366441272</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1259587040413774</v>
+        <v>0.1327287366441272</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1259587040413774</v>
+        <v>0.1327287366441272</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1259587040413774</v>
+        <v>0.1327239270090803</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1258497109342643</v>
+        <v>0.1327239270090803</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1258497109342643</v>
+        <v>0.1327239270090803</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1258497109342643</v>
+        <v>0.1327239270090803</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8594014644622803</v>
+        <v>1.538951635360718</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>5561.121790263073</v>
+        <v>6404.544272658598</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2612369393916287</v>
+        <v>0.2435465729302398</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1967978227423629</v>
+        <v>0.2052815502316371</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1826766275731355</v>
+        <v>0.178694355199945</v>
       </c>
       <c r="I8" t="n">
-        <v>0.165726156694249</v>
+        <v>0.1683892237606172</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1426082550982998</v>
+        <v>0.1635707437378576</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1415162970344212</v>
+        <v>0.1489498349514058</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1397365322063736</v>
+        <v>0.1419932390705304</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1326066613395584</v>
+        <v>0.1395383037890676</v>
       </c>
       <c r="N8" t="n">
-        <v>0.124597596163596</v>
+        <v>0.1352748415216457</v>
       </c>
       <c r="O8" t="n">
-        <v>0.124597596163596</v>
+        <v>0.1329749553030454</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1236637241515554</v>
+        <v>0.1329749553030454</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1193583876122125</v>
+        <v>0.1329749553030454</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1193583876122125</v>
+        <v>0.1329233210192076</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1192216178901757</v>
+        <v>0.1329233210192076</v>
       </c>
       <c r="T8" t="n">
-        <v>0.117335653469729</v>
+        <v>0.1328566499580744</v>
       </c>
       <c r="U8" t="n">
-        <v>0.117335653469729</v>
+        <v>0.1328566499580744</v>
       </c>
       <c r="V8" t="n">
-        <v>0.116749629832031</v>
+        <v>0.1328566499580744</v>
       </c>
       <c r="W8" t="n">
-        <v>0.116749629832031</v>
+        <v>0.1328541049716566</v>
       </c>
       <c r="X8" t="n">
-        <v>0.116749629832031</v>
+        <v>0.1328541049716566</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1164039335333932</v>
+        <v>0.1328449175956841</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7655999660491943</v>
+        <v>1.568004369735718</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>5566.681291594658</v>
+        <v>6403.751574711064</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2612369393916287</v>
+        <v>0.2435465729302398</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1967978227423629</v>
+        <v>0.2052815502316371</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1826766275731355</v>
+        <v>0.178694355199945</v>
       </c>
       <c r="I9" t="n">
-        <v>0.165726156694249</v>
+        <v>0.1669630682704453</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1492580251219544</v>
+        <v>0.1529917639035948</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1371595902975441</v>
+        <v>0.1526767706537398</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1300566062269913</v>
+        <v>0.1463237862372542</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1252352845453791</v>
+        <v>0.141050699889859</v>
       </c>
       <c r="N9" t="n">
-        <v>0.124485728366017</v>
+        <v>0.141050699889859</v>
       </c>
       <c r="O9" t="n">
-        <v>0.124485728366017</v>
+        <v>0.1409017221422948</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1234453567825319</v>
+        <v>0.1409017221422948</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.121982845543144</v>
+        <v>0.1408467084297077</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1216208724505044</v>
+        <v>0.1408467084297077</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1202929609455025</v>
+        <v>0.1408467084297077</v>
       </c>
       <c r="T9" t="n">
-        <v>0.119218317748401</v>
+        <v>0.1408467084297077</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1188849911772946</v>
+        <v>0.1408467084297077</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1187661615536152</v>
+        <v>0.1408467084297077</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1170113783455089</v>
+        <v>0.1408467084297077</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1168233446628406</v>
+        <v>0.1408382574357522</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1165123058790381</v>
+        <v>0.1408294653939778</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7969136238098145</v>
+        <v>1.589019060134888</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>5523.824040974669</v>
+        <v>6401.560080297098</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2612369393916287</v>
+        <v>0.2435465729302398</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1967978227423629</v>
+        <v>0.2052815502316371</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1826766275731355</v>
+        <v>0.178694355199945</v>
       </c>
       <c r="I10" t="n">
-        <v>0.165726156694249</v>
+        <v>0.1683892237606172</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1538881665131734</v>
+        <v>0.1567560626070753</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1472399347538996</v>
+        <v>0.1530316141783553</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1387525116533764</v>
+        <v>0.1457413466862789</v>
       </c>
       <c r="M10" t="n">
-        <v>0.136538133377005</v>
+        <v>0.1392755709879787</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1332828548476813</v>
+        <v>0.1363704599490802</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1284266502415519</v>
+        <v>0.1357716411374943</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1252981294095448</v>
+        <v>0.1333464916588328</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1250570663618751</v>
+        <v>0.132885143174724</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1250570663618751</v>
+        <v>0.132885143174724</v>
       </c>
       <c r="S10" t="n">
-        <v>0.124873683282672</v>
+        <v>0.132885143174724</v>
       </c>
       <c r="T10" t="n">
-        <v>0.124873683282672</v>
+        <v>0.132885143174724</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1239702349983815</v>
+        <v>0.132885143174724</v>
       </c>
       <c r="V10" t="n">
-        <v>0.1239702349983815</v>
+        <v>0.1328228891261538</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1239702349983815</v>
+        <v>0.1328228891261538</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1239702349983815</v>
+        <v>0.1327867462046218</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.1236768818903444</v>
+        <v>0.1327867462046218</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7499873638153076</v>
+        <v>1.57801079750061</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>5384.813232915303</v>
+        <v>6398.536599706097</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2612369393916287</v>
+        <v>0.2435465729302398</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1967978227423629</v>
+        <v>0.2052815502316371</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1826766275731355</v>
+        <v>0.178694355199945</v>
       </c>
       <c r="I11" t="n">
-        <v>0.165726156694249</v>
+        <v>0.1683892237606172</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1556224032727453</v>
+        <v>0.1549618883998216</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1419771142015106</v>
+        <v>0.14869410273477</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1363032853960092</v>
+        <v>0.1448079053246598</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1289843925104508</v>
+        <v>0.1448079053246598</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1226246923756752</v>
+        <v>0.1440024987646787</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1224755686838483</v>
+        <v>0.1410954357640267</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1208451679664848</v>
+        <v>0.1407601490569694</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.1187675514144697</v>
+        <v>0.1407445688223459</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1174163406949813</v>
+        <v>0.1407445688223459</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1161612618409982</v>
+        <v>0.1407278089611325</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1155934138523988</v>
+        <v>0.1407278089611325</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1150157652565395</v>
+        <v>0.1407278089611325</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1129774923165696</v>
+        <v>0.1407278089611325</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1129774923165696</v>
+        <v>0.1407278089611325</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1129671195500059</v>
+        <v>0.1407278089611325</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.1129671195500059</v>
+        <v>0.1407278089611325</v>
       </c>
     </row>
   </sheetData>
